--- a/Federated Electric Market/result_excel/train_loss/frac/frac=0.3.xlsx
+++ b/Federated Electric Market/result_excel/train_loss/frac/frac=0.3.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008720864416555623</v>
+        <v>0.01052586504808669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06999220157366084</v>
+        <v>0.07030518342161725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08675028904932389</v>
+        <v>0.0903718540266918</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008904911329637857</v>
+        <v>0.007353670995752609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07023486242411618</v>
+        <v>0.0596939292365962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08990193137269409</v>
+        <v>0.0782615743561139</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004634560023228875</v>
+        <v>0.006796902557720645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04736575604198461</v>
+        <v>0.0571761054442793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06310850566942812</v>
+        <v>0.07531804542654845</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003720622239671549</v>
+        <v>0.007067732507963572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04594707325531883</v>
+        <v>0.05915944600810886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05816276618319632</v>
+        <v>0.07717671558463131</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004397358685547142</v>
+        <v>0.006898712975452851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04700506447490467</v>
+        <v>0.05779665415958966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06140928233753419</v>
+        <v>0.07593987916428056</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009332138234179745</v>
+        <v>0.006599618112557264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07019387892586119</v>
+        <v>0.05670894265544091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0915307177025686</v>
+        <v>0.07426365085825569</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.004121980548491896</v>
+        <v>0.005710868735191856</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04431964055009302</v>
+        <v>0.05278040653458305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05857958435276256</v>
+        <v>0.06912745532170513</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002654117436651042</v>
+        <v>0.006681029845974296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03652022688788302</v>
+        <v>0.05781262941094874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04835776356386716</v>
+        <v>0.07538084290009708</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007930091211043568</v>
+        <v>0.006255187530003883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06706065773808707</v>
+        <v>0.05440401832005516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08481839182577895</v>
+        <v>0.07186055493374731</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01083049529499592</v>
+        <v>0.006446199376007034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07097236911191583</v>
+        <v>0.05624853022498889</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0969175677342495</v>
+        <v>0.07394092931947203</v>
       </c>
     </row>
   </sheetData>
